--- a/configTools/Luban/ConfigRoot/Datas/refresh.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/refresh.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="11925" tabRatio="835" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="module_refresh" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="module_template" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="monster_template" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="monster_template怪物刷新模板备份" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="monster_foration" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="module_refresh组件刷新模板测试" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="蓝霸符设计地图思路(开发待定)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="module_refresh" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="module_template" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monster_template" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monster_template怪物刷新模板备份" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monster_foration" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="module_refresh组件刷新模板测试" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="蓝霸符设计地图思路(开发待定)" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'monster_template'!$A$4:$R$439</definedName>
@@ -1223,8 +1223,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="scene|场景"/>
       <sheetName val="scene_module|场景组件"/>
@@ -2547,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -15766,18 +15766,18 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
+    <dataValidation sqref="A1:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16783,12 +16783,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -36079,18 +36079,18 @@
   </sheetData>
   <autoFilter ref="A4:R439"/>
   <dataValidations count="1">
-    <dataValidation sqref="R436:R439" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
+    <dataValidation sqref="R436:R439" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
       <formula1>COUNTIF($A:$A,R436)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -41285,12 +41285,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -41385,12 +41385,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -53723,7 +53723,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/configTools/Luban/ConfigRoot/Datas/refresh.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/refresh.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="11925" tabRatio="835" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="module_refresh" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="module_template" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monster_template" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monster_template怪物刷新模板备份" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monster_foration" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="module_refresh组件刷新模板测试" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="蓝霸符设计地图思路(开发待定)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="module_refresh" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="module_template" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="monster_template" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="monster_template怪物刷新模板备份" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="monster_foration" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="module_refresh组件刷新模板测试" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="蓝霸符设计地图思路(开发待定)" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'monster_template'!$A$4:$R$439</definedName>
@@ -1223,8 +1223,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="scene|场景"/>
       <sheetName val="scene_module|场景组件"/>
@@ -15766,7 +15766,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
+    <dataValidation sqref="A1:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A1)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -36079,7 +36079,7 @@
   </sheetData>
   <autoFilter ref="A4:R439"/>
   <dataValidations count="1">
-    <dataValidation sqref="R436:R439" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
+    <dataValidation sqref="R436:R439" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" type="custom" errorStyle="warning">
       <formula1>COUNTIF($A:$A,R436)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/configTools/Luban/ConfigRoot/Datas/refresh.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/refresh.xlsx
@@ -2547,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -15772,12 +15772,12 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16783,12 +16783,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -36085,12 +36085,12 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -41285,12 +41285,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -41385,12 +41385,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -53723,7 +53723,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
